--- a/Results/Pathprint/Pathprint Pathway Genes.xlsx
+++ b/Results/Pathprint/Pathprint Pathway Genes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4280" windowWidth="38400" windowHeight="21140" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-18240" yWindow="760" windowWidth="25360" windowHeight="14480" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="diffPathways" sheetId="17" r:id="rId10"/>
     <sheet name="diffPathwaysGenes" sheetId="19" r:id="rId11"/>
     <sheet name="GWASenrich" sheetId="20" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="3044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10102" uniqueCount="3044">
   <si>
     <t>Complement Activation, Classical Pathway (Wikipathways)</t>
   </si>
@@ -9642,7 +9643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1592">
+  <cellStyleXfs count="1606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10897,6 +10898,20 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11437,7 +11452,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1592">
+  <cellStyles count="1606">
     <cellStyle name="Bad" xfId="1252" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -12233,6 +12248,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1587" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1589" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1605" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1251" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -13028,6 +13050,13 @@
     <cellStyle name="Hyperlink" xfId="1586" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1588" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1604" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1253" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -16601,7 +16630,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16826,11 +16855,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="16" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="115" customHeight="1">
       <c r="A1" s="64" t="s">
@@ -20450,7 +20482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -20630,6 +20662,117 @@
       </c>
       <c r="B12" s="82" t="s">
         <v>3032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="100">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="140">
+      <c r="A2" s="64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="180">
+      <c r="A3" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="180">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="120">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="180">
+      <c r="A6" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="80">
+      <c r="A7" s="64" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="140">
+      <c r="A8" s="64" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="140">
+      <c r="A9" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="100">
+      <c r="A10" s="64" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="80">
+      <c r="A11" s="64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="60">
+      <c r="A12" s="64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="80">
+      <c r="A13" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="80">
+      <c r="A14" s="64" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="60">
+      <c r="A15" s="64" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="60">
+      <c r="A16" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="80">
+      <c r="A17" s="64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="80">
+      <c r="A18" s="64" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
